--- a/biology/Zoologie/Cyanea_capillata/Cyanea_capillata.xlsx
+++ b/biology/Zoologie/Cyanea_capillata/Cyanea_capillata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Méduse à crinière de lion, Cyanée capillaire
 La Méduse à crinière de lion ou Cyanée capillaire (Cyanea capillata) est une espèce de cnidaires, de la famille des Cyaneidae.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Méduse à crinière de lion est l’une des plus grandes méduses au monde[1]. Son diamètre varie de 50 cm à 2 m, et ses tentacules peuvent mesurer 30 m de long (le plus grand spécimen connu mesurait 2,4 m de diamètre et 36,5 m de long) et atteindre le nombre de 800. Sa couleur change suivant l'âge : rose ou jaune pour les jeunes, orange, rouge et brun lorsqu'elles sont âgées[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Méduse à crinière de lion est l’une des plus grandes méduses au monde. Son diamètre varie de 50 cm à 2 m, et ses tentacules peuvent mesurer 30 m de long (le plus grand spécimen connu mesurait 2,4 m de diamètre et 36,5 m de long) et atteindre le nombre de 800. Sa couleur change suivant l'âge : rose ou jaune pour les jeunes, orange, rouge et brun lorsqu'elles sont âgées.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces méduses se nourrissent de zooplancton, de petits poissons et de cténophores qu'elles attrapent grâce à leurs tentacules et qu'elles amènent à leurs bras oraux pour y être digérés.
 </t>
@@ -574,7 +590,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La Méduse à crinière de lion est septentrionale et préfère les eaux froides : on la trouve à l'intérieur du cercle arctique, dans le Pacifique Nord (du Japon à la Californie) et dans l'Atlantique Nord (entre l'Europe du Nord et le nord des États-Unis). On peut aussi en observer dans d'autres mers à cause des courants marins. Ces méduses se trouvent toujours dans les vingt premiers mètres sous la surface de l'eau. On les retrouve parfois en grands groupes, principalement en raison des tempêtes, les forts courants provoqués par les vents les amenant dans une même zone.
 </t>
@@ -605,9 +623,11 @@
           <t>Piqûre</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Leurs piqûres peuvent provoquer des ampoules, des irritations et des crampes musculaires et peuvent aller jusqu'à affecter la respiration et le fonctionnement du cœur[3] (ses tentacules piquent même lorsque l'animal est échoué depuis longtemps).
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Leurs piqûres peuvent provoquer des ampoules, des irritations et des crampes musculaires et peuvent aller jusqu'à affecter la respiration et le fonctionnement du cœur (ses tentacules piquent même lorsque l'animal est échoué depuis longtemps).
 </t>
         </is>
       </c>
